--- a/chatgpt-excel-start.xlsx
+++ b/chatgpt-excel-start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28702"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\complianceiq-intro-chatgpt-excel-users\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\first-steps-chatgpt-excel-users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91372616-8374-4A6F-AE13-C4D398A827C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6190A7-2D21-4F16-BF8F-42C5BCDB5C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{A18D0E1D-2F0A-4F2F-A734-BE933C24E9CF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{A18D0E1D-2F0A-4F2F-A734-BE933C24E9CF}"/>
   </bookViews>
   <sheets>
     <sheet name="reshape" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -272,7 +294,6 @@
   <dxfs count="17">
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -284,21 +305,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -394,6 +401,7 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -408,35 +416,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -448,7 +428,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -509,16 +488,59 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="26"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="26"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color auto="1"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -552,15 +574,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3585E483-C823-449B-AC47-99053B5F62B6}" name="sales" displayName="sales" ref="A1:E101" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="15" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3585E483-C823-449B-AC47-99053B5F62B6}" name="sales" displayName="sales" ref="A1:E101" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <autoFilter ref="A1:E101" xr:uid="{1BFEB319-2DD0-45BC-8F1F-657F666BC2BF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9D4DCAE3-4FA7-48B0-A11F-4ACCD81F8E26}" name="Employee ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{D742C1D8-9793-4F32-A528-4E0D445D6B92}" name="Sales" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{90E3DF63-8182-4D18-BAB2-BC0480D34C3B}" name="Commission Rate" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{594A47A3-6451-4F57-9F1E-2DA80850E03E}" name="Region" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{6BCAD799-0905-4110-99E0-69076D15033B}" name="Rank by Region" dataDxfId="10">
-      <calculatedColumnFormula>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{9D4DCAE3-4FA7-48B0-A11F-4ACCD81F8E26}" name="Employee ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{D742C1D8-9793-4F32-A528-4E0D445D6B92}" name="Sales" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{90E3DF63-8182-4D18-BAB2-BC0480D34C3B}" name="Commission Rate" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{594A47A3-6451-4F57-9F1E-2DA80850E03E}" name="Region" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{6BCAD799-0905-4110-99E0-69076D15033B}" name="Rank by Region" dataDxfId="0">
+      <calculatedColumnFormula array="1">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -568,15 +590,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBE43C87-25A4-4EE9-BEE8-3B32CB1E37A9}" name="Table13" displayName="Table13" ref="A1:F16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBE43C87-25A4-4EE9-BEE8-3B32CB1E37A9}" name="Table13" displayName="Table13" ref="A1:F16" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:F16" xr:uid="{CC02F154-D474-43C6-B276-A315462E37AA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B8FE6D52-2122-4E4C-875F-3257481D9AF2}" name="city" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{116A3B4A-08E5-4F3F-82B8-0DC0F98397E5}" name="state" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{61285188-BBFF-4684-BE90-38ECF1A8E595}" name="population" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{346E3E84-1C48-4AAA-A584-7D3F29A50D2F}" name="area" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C14B701A-F9CE-462C-854F-88F4B71DB848}" name="density" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{F6CA0DFA-6671-4668-A8DC-05B22B94A23E}" name="is_capital" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B8FE6D52-2122-4E4C-875F-3257481D9AF2}" name="city" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{116A3B4A-08E5-4F3F-82B8-0DC0F98397E5}" name="state" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{61285188-BBFF-4684-BE90-38ECF1A8E595}" name="population" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{346E3E84-1C48-4AAA-A584-7D3F29A50D2F}" name="area" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C14B701A-F9CE-462C-854F-88F4B71DB848}" name="density" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{F6CA0DFA-6671-4668-A8DC-05B22B94A23E}" name="is_capital" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -901,13 +923,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2822792E-2ECE-4F27-98B1-701030630D40}">
   <dimension ref="A1:H441"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
+  <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -933,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A2">
         <v>2</v>
       </c>
@@ -959,7 +981,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A3">
         <v>2</v>
       </c>
@@ -985,7 +1007,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1011,7 +1033,7 @@
         <v>7844</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1037,7 +1059,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1063,7 +1085,7 @@
         <v>5185</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1089,7 +1111,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1115,7 +1137,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1141,7 +1163,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1167,7 +1189,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1193,7 +1215,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1219,7 +1241,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1245,7 +1267,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1271,7 +1293,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1297,7 +1319,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1323,7 +1345,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1349,7 +1371,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1375,7 +1397,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1401,7 +1423,7 @@
         <v>4478</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1427,7 +1449,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1453,7 +1475,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1479,7 +1501,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1505,7 +1527,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1531,7 +1553,7 @@
         <v>4334</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1557,7 +1579,7 @@
         <v>16523</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1583,7 +1605,7 @@
         <v>5778</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1609,7 +1631,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1635,7 +1657,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1661,7 +1683,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1687,7 +1709,7 @@
         <v>5206</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1713,7 +1735,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1739,7 +1761,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1765,7 +1787,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1791,7 +1813,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1817,7 +1839,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1843,7 +1865,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1869,7 +1891,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1895,7 +1917,7 @@
         <v>4626</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1921,7 +1943,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1947,7 +1969,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1973,7 +1995,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1999,7 +2021,7 @@
         <v>5864</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2025,7 +2047,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2051,7 +2073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2077,7 +2099,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A46">
         <v>2</v>
       </c>
@@ -2103,7 +2125,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2129,7 +2151,7 @@
         <v>4985</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2155,7 +2177,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2181,7 +2203,7 @@
         <v>6465</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2207,7 +2229,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2233,7 +2255,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2259,7 +2281,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2285,7 +2307,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2311,7 +2333,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2337,7 +2359,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2363,7 +2385,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2389,7 +2411,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2415,7 +2437,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2441,7 +2463,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2467,7 +2489,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2493,7 +2515,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2519,7 +2541,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2545,7 +2567,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2571,7 +2593,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2597,7 +2619,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2623,7 +2645,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2649,7 +2671,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2675,7 +2697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2701,7 +2723,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2727,7 +2749,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2753,7 +2775,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2779,7 +2801,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2805,7 +2827,7 @@
         <v>14472</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2831,7 +2853,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2857,7 +2879,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2883,7 +2905,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2909,7 +2931,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2935,7 +2957,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2961,7 +2983,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2987,7 +3009,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3013,7 +3035,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3039,7 +3061,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A83">
         <v>2</v>
       </c>
@@ -3065,7 +3087,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A84">
         <v>2</v>
       </c>
@@ -3091,7 +3113,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3117,7 +3139,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A86">
         <v>2</v>
       </c>
@@ -3143,7 +3165,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A87">
         <v>2</v>
       </c>
@@ -3169,7 +3191,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A88">
         <v>2</v>
       </c>
@@ -3195,7 +3217,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3221,7 +3243,7 @@
         <v>14351</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3247,7 +3269,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3273,7 +3295,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3299,7 +3321,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3325,7 +3347,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A94">
         <v>2</v>
       </c>
@@ -3351,7 +3373,7 @@
         <v>5130</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3377,7 +3399,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A96">
         <v>2</v>
       </c>
@@ -3403,7 +3425,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3429,7 +3451,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A98">
         <v>2</v>
       </c>
@@ -3455,7 +3477,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3481,7 +3503,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3507,7 +3529,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3533,7 +3555,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A102">
         <v>2</v>
       </c>
@@ -3559,7 +3581,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A103">
         <v>2</v>
       </c>
@@ -3585,7 +3607,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A104">
         <v>2</v>
       </c>
@@ -3611,7 +3633,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3637,7 +3659,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3663,7 +3685,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3689,7 +3711,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A108">
         <v>2</v>
       </c>
@@ -3715,7 +3737,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A109">
         <v>2</v>
       </c>
@@ -3741,7 +3763,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A110">
         <v>2</v>
       </c>
@@ -3767,7 +3789,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A111">
         <v>2</v>
       </c>
@@ -3793,7 +3815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3819,7 +3841,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A113">
         <v>2</v>
       </c>
@@ -3845,7 +3867,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3871,7 +3893,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3897,7 +3919,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3923,7 +3945,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3949,7 +3971,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3975,7 +3997,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4001,7 +4023,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4027,7 +4049,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4053,7 +4075,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4079,7 +4101,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4105,7 +4127,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4131,7 +4153,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A125">
         <v>2</v>
       </c>
@@ -4157,7 +4179,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4183,7 +4205,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A127">
         <v>1</v>
       </c>
@@ -4209,7 +4231,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4235,7 +4257,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A129">
         <v>2</v>
       </c>
@@ -4261,7 +4283,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4287,7 +4309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4313,7 +4335,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A132">
         <v>1</v>
       </c>
@@ -4339,7 +4361,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4365,7 +4387,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4391,7 +4413,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4417,7 +4439,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4443,7 +4465,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4469,7 +4491,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4495,7 +4517,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4521,7 +4543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4547,7 +4569,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4573,7 +4595,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4599,7 +4621,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4625,7 +4647,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4651,7 +4673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4677,7 +4699,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4703,7 +4725,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A147">
         <v>2</v>
       </c>
@@ -4729,7 +4751,7 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4755,7 +4777,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4781,7 +4803,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4807,7 +4829,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4833,7 +4855,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4859,7 +4881,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4885,7 +4907,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4911,7 +4933,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4937,7 +4959,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4963,7 +4985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A157">
         <v>2</v>
       </c>
@@ -4989,7 +5011,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A158">
         <v>2</v>
       </c>
@@ -5015,7 +5037,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A159">
         <v>1</v>
       </c>
@@ -5041,7 +5063,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A160">
         <v>2</v>
       </c>
@@ -5067,7 +5089,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A161">
         <v>2</v>
       </c>
@@ -5093,7 +5115,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A162">
         <v>2</v>
       </c>
@@ -5119,7 +5141,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A163">
         <v>1</v>
       </c>
@@ -5145,7 +5167,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5171,7 +5193,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A165">
         <v>2</v>
       </c>
@@ -5197,7 +5219,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A166">
         <v>2</v>
       </c>
@@ -5223,7 +5245,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A167">
         <v>2</v>
       </c>
@@ -5249,7 +5271,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A168">
         <v>2</v>
       </c>
@@ -5275,7 +5297,7 @@
         <v>3637</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A169">
         <v>1</v>
       </c>
@@ -5301,7 +5323,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5327,7 +5349,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A171">
         <v>1</v>
       </c>
@@ -5353,7 +5375,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A172">
         <v>2</v>
       </c>
@@ -5379,7 +5401,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A173">
         <v>2</v>
       </c>
@@ -5405,7 +5427,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A174">
         <v>1</v>
       </c>
@@ -5431,7 +5453,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A175">
         <v>2</v>
       </c>
@@ -5457,7 +5479,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A176">
         <v>1</v>
       </c>
@@ -5483,7 +5505,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A177">
         <v>2</v>
       </c>
@@ -5509,7 +5531,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A178">
         <v>1</v>
       </c>
@@ -5535,7 +5557,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A179">
         <v>1</v>
       </c>
@@ -5561,7 +5583,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A180">
         <v>1</v>
       </c>
@@ -5587,7 +5609,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A181">
         <v>1</v>
       </c>
@@ -5613,7 +5635,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A182">
         <v>1</v>
       </c>
@@ -5639,7 +5661,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5665,7 +5687,7 @@
         <v>8550</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A184">
         <v>1</v>
       </c>
@@ -5691,7 +5713,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A185">
         <v>1</v>
       </c>
@@ -5717,7 +5739,7 @@
         <v>47943</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A186">
         <v>1</v>
       </c>
@@ -5743,7 +5765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A187">
         <v>1</v>
       </c>
@@ -5769,7 +5791,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A188">
         <v>1</v>
       </c>
@@ -5795,7 +5817,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5821,7 +5843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A190">
         <v>2</v>
       </c>
@@ -5847,7 +5869,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A191">
         <v>2</v>
       </c>
@@ -5873,7 +5895,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A192">
         <v>1</v>
       </c>
@@ -5899,7 +5921,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A193">
         <v>1</v>
       </c>
@@ -5925,7 +5947,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A194">
         <v>1</v>
       </c>
@@ -5951,7 +5973,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A195">
         <v>2</v>
       </c>
@@ -5977,7 +5999,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A196">
         <v>1</v>
       </c>
@@ -6003,7 +6025,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A197">
         <v>1</v>
       </c>
@@ -6029,7 +6051,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6055,7 +6077,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A199">
         <v>2</v>
       </c>
@@ -6081,7 +6103,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A200">
         <v>1</v>
       </c>
@@ -6107,7 +6129,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A201">
         <v>1</v>
       </c>
@@ -6133,7 +6155,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A202">
         <v>2</v>
       </c>
@@ -6159,7 +6181,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A203">
         <v>2</v>
       </c>
@@ -6185,7 +6207,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A204">
         <v>1</v>
       </c>
@@ -6211,7 +6233,7 @@
         <v>6854</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A205">
         <v>1</v>
       </c>
@@ -6237,7 +6259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A206">
         <v>1</v>
       </c>
@@ -6263,7 +6285,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A207">
         <v>2</v>
       </c>
@@ -6289,7 +6311,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A208">
         <v>1</v>
       </c>
@@ -6315,7 +6337,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A209">
         <v>2</v>
       </c>
@@ -6341,7 +6363,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A210">
         <v>1</v>
       </c>
@@ -6367,7 +6389,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A211">
         <v>2</v>
       </c>
@@ -6393,7 +6415,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A212">
         <v>1</v>
       </c>
@@ -6419,7 +6441,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A213">
         <v>2</v>
       </c>
@@ -6445,7 +6467,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A214">
         <v>1</v>
       </c>
@@ -6471,7 +6493,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A215">
         <v>1</v>
       </c>
@@ -6497,7 +6519,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A216">
         <v>2</v>
       </c>
@@ -6523,7 +6545,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A217">
         <v>1</v>
       </c>
@@ -6549,7 +6571,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A218">
         <v>2</v>
       </c>
@@ -6575,7 +6597,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A219">
         <v>1</v>
       </c>
@@ -6601,7 +6623,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A220">
         <v>2</v>
       </c>
@@ -6627,7 +6649,7 @@
         <v>6372</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A221">
         <v>1</v>
       </c>
@@ -6653,7 +6675,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A222">
         <v>1</v>
       </c>
@@ -6679,7 +6701,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A223">
         <v>1</v>
       </c>
@@ -6705,7 +6727,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A224">
         <v>1</v>
       </c>
@@ -6731,7 +6753,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A225">
         <v>2</v>
       </c>
@@ -6757,7 +6779,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A226">
         <v>1</v>
       </c>
@@ -6783,7 +6805,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A227">
         <v>1</v>
       </c>
@@ -6809,7 +6831,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A228">
         <v>2</v>
       </c>
@@ -6835,7 +6857,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A229">
         <v>1</v>
       </c>
@@ -6861,7 +6883,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A230">
         <v>1</v>
       </c>
@@ -6887,7 +6909,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A231">
         <v>1</v>
       </c>
@@ -6913,7 +6935,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A232">
         <v>2</v>
       </c>
@@ -6939,7 +6961,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A233">
         <v>1</v>
       </c>
@@ -6965,7 +6987,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A234">
         <v>1</v>
       </c>
@@ -6991,7 +7013,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A235">
         <v>1</v>
       </c>
@@ -7017,7 +7039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A236">
         <v>1</v>
       </c>
@@ -7043,7 +7065,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A237">
         <v>1</v>
       </c>
@@ -7069,7 +7091,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A238">
         <v>1</v>
       </c>
@@ -7095,7 +7117,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A239">
         <v>1</v>
       </c>
@@ -7121,7 +7143,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A240">
         <v>1</v>
       </c>
@@ -7147,7 +7169,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A241">
         <v>1</v>
       </c>
@@ -7173,7 +7195,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A242">
         <v>1</v>
       </c>
@@ -7199,7 +7221,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A243">
         <v>1</v>
       </c>
@@ -7225,7 +7247,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A244">
         <v>1</v>
       </c>
@@ -7251,7 +7273,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A245">
         <v>1</v>
       </c>
@@ -7277,7 +7299,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A246">
         <v>1</v>
       </c>
@@ -7303,7 +7325,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A247">
         <v>2</v>
       </c>
@@ -7329,7 +7351,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A248">
         <v>1</v>
       </c>
@@ -7355,7 +7377,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A249">
         <v>1</v>
       </c>
@@ -7381,7 +7403,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A250">
         <v>1</v>
       </c>
@@ -7407,7 +7429,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A251">
         <v>1</v>
       </c>
@@ -7433,7 +7455,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A252">
         <v>1</v>
       </c>
@@ -7459,7 +7481,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A253">
         <v>2</v>
       </c>
@@ -7485,7 +7507,7 @@
         <v>5121</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A254">
         <v>1</v>
       </c>
@@ -7511,7 +7533,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A255">
         <v>1</v>
       </c>
@@ -7537,7 +7559,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A256">
         <v>1</v>
       </c>
@@ -7563,7 +7585,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A257">
         <v>1</v>
       </c>
@@ -7589,7 +7611,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A258">
         <v>1</v>
       </c>
@@ -7615,7 +7637,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A259">
         <v>1</v>
       </c>
@@ -7641,7 +7663,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A260">
         <v>1</v>
       </c>
@@ -7667,7 +7689,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A261">
         <v>1</v>
       </c>
@@ -7693,7 +7715,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A262">
         <v>1</v>
       </c>
@@ -7719,7 +7741,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A263">
         <v>1</v>
       </c>
@@ -7745,7 +7767,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A264">
         <v>1</v>
       </c>
@@ -7771,7 +7793,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A265">
         <v>1</v>
       </c>
@@ -7797,7 +7819,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A266">
         <v>2</v>
       </c>
@@ -7823,7 +7845,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A267">
         <v>1</v>
       </c>
@@ -7849,7 +7871,7 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A268">
         <v>2</v>
       </c>
@@ -7875,7 +7897,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A269">
         <v>1</v>
       </c>
@@ -7901,7 +7923,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A270">
         <v>2</v>
       </c>
@@ -7927,7 +7949,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A271">
         <v>1</v>
       </c>
@@ -7953,7 +7975,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A272">
         <v>1</v>
       </c>
@@ -7979,7 +8001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A273">
         <v>1</v>
       </c>
@@ -8005,7 +8027,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A274">
         <v>1</v>
       </c>
@@ -8031,7 +8053,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A275">
         <v>1</v>
       </c>
@@ -8057,7 +8079,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A276">
         <v>1</v>
       </c>
@@ -8083,7 +8105,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A277">
         <v>1</v>
       </c>
@@ -8109,7 +8131,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A278">
         <v>1</v>
       </c>
@@ -8135,7 +8157,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A279">
         <v>1</v>
       </c>
@@ -8161,7 +8183,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A280">
         <v>1</v>
       </c>
@@ -8187,7 +8209,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A281">
         <v>2</v>
       </c>
@@ -8213,7 +8235,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A282">
         <v>1</v>
       </c>
@@ -8239,7 +8261,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A283">
         <v>2</v>
       </c>
@@ -8265,7 +8287,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A284">
         <v>1</v>
       </c>
@@ -8291,7 +8313,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A285">
         <v>1</v>
       </c>
@@ -8317,7 +8339,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A286">
         <v>1</v>
       </c>
@@ -8343,7 +8365,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A287">
         <v>1</v>
       </c>
@@ -8369,7 +8391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A288">
         <v>1</v>
       </c>
@@ -8395,7 +8417,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A289">
         <v>1</v>
       </c>
@@ -8421,7 +8443,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A290">
         <v>1</v>
       </c>
@@ -8447,7 +8469,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A291">
         <v>1</v>
       </c>
@@ -8473,7 +8495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A292">
         <v>1</v>
       </c>
@@ -8499,7 +8521,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A293">
         <v>1</v>
       </c>
@@ -8525,7 +8547,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A294">
         <v>1</v>
       </c>
@@ -8551,7 +8573,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A295">
         <v>2</v>
       </c>
@@ -8577,7 +8599,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A296">
         <v>1</v>
       </c>
@@ -8603,7 +8625,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A297">
         <v>2</v>
       </c>
@@ -8629,7 +8651,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A298">
         <v>1</v>
       </c>
@@ -8655,7 +8677,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A299">
         <v>2</v>
       </c>
@@ -8681,7 +8703,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A300">
         <v>2</v>
       </c>
@@ -8707,7 +8729,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A301">
         <v>1</v>
       </c>
@@ -8733,7 +8755,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A302">
         <v>2</v>
       </c>
@@ -8759,7 +8781,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A303">
         <v>2</v>
       </c>
@@ -8785,7 +8807,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A304">
         <v>2</v>
       </c>
@@ -8811,7 +8833,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A305">
         <v>2</v>
       </c>
@@ -8837,7 +8859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A306">
         <v>2</v>
       </c>
@@ -8863,7 +8885,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A307">
         <v>2</v>
       </c>
@@ -8889,7 +8911,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A308">
         <v>2</v>
       </c>
@@ -8915,7 +8937,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A309">
         <v>1</v>
       </c>
@@ -8941,7 +8963,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A310">
         <v>1</v>
       </c>
@@ -8967,7 +8989,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A311">
         <v>2</v>
       </c>
@@ -8993,7 +9015,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A312">
         <v>1</v>
       </c>
@@ -9019,7 +9041,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A313">
         <v>1</v>
       </c>
@@ -9045,7 +9067,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A314">
         <v>2</v>
       </c>
@@ -9071,7 +9093,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A315">
         <v>1</v>
       </c>
@@ -9097,7 +9119,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A316">
         <v>1</v>
       </c>
@@ -9123,7 +9145,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A317">
         <v>2</v>
       </c>
@@ -9149,7 +9171,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A318">
         <v>1</v>
       </c>
@@ -9175,7 +9197,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A319">
         <v>1</v>
       </c>
@@ -9201,7 +9223,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A320">
         <v>1</v>
       </c>
@@ -9227,7 +9249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A321">
         <v>2</v>
       </c>
@@ -9253,7 +9275,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A322">
         <v>1</v>
       </c>
@@ -9279,7 +9301,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A323">
         <v>1</v>
       </c>
@@ -9305,7 +9327,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A324">
         <v>1</v>
       </c>
@@ -9331,7 +9353,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A325">
         <v>1</v>
       </c>
@@ -9357,7 +9379,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A326">
         <v>1</v>
       </c>
@@ -9383,7 +9405,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A327">
         <v>1</v>
       </c>
@@ -9409,7 +9431,7 @@
         <v>5609</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A328">
         <v>1</v>
       </c>
@@ -9435,7 +9457,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A329">
         <v>1</v>
       </c>
@@ -9461,7 +9483,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A330">
         <v>1</v>
       </c>
@@ -9487,7 +9509,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A331">
         <v>1</v>
       </c>
@@ -9513,7 +9535,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A332">
         <v>1</v>
       </c>
@@ -9539,7 +9561,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A333">
         <v>2</v>
       </c>
@@ -9565,7 +9587,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A334">
         <v>1</v>
       </c>
@@ -9591,7 +9613,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A335">
         <v>2</v>
       </c>
@@ -9617,7 +9639,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A336">
         <v>2</v>
       </c>
@@ -9643,7 +9665,7 @@
         <v>3486</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A337">
         <v>2</v>
       </c>
@@ -9669,7 +9691,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A338">
         <v>1</v>
       </c>
@@ -9695,7 +9717,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A339">
         <v>1</v>
       </c>
@@ -9721,7 +9743,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A340">
         <v>1</v>
       </c>
@@ -9747,7 +9769,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A341">
         <v>1</v>
       </c>
@@ -9773,7 +9795,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A342">
         <v>2</v>
       </c>
@@ -9799,7 +9821,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A343">
         <v>2</v>
       </c>
@@ -9825,7 +9847,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A344">
         <v>1</v>
       </c>
@@ -9851,7 +9873,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A345">
         <v>2</v>
       </c>
@@ -9877,7 +9899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A346">
         <v>1</v>
       </c>
@@ -9903,7 +9925,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A347">
         <v>1</v>
       </c>
@@ -9929,7 +9951,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A348">
         <v>2</v>
       </c>
@@ -9955,7 +9977,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A349">
         <v>2</v>
       </c>
@@ -9981,7 +10003,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A350">
         <v>1</v>
       </c>
@@ -10007,7 +10029,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A351">
         <v>2</v>
       </c>
@@ -10033,7 +10055,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A352">
         <v>1</v>
       </c>
@@ -10059,7 +10081,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A353">
         <v>2</v>
       </c>
@@ -10085,7 +10107,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A354">
         <v>1</v>
       </c>
@@ -10111,7 +10133,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A355">
         <v>2</v>
       </c>
@@ -10137,7 +10159,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A356">
         <v>1</v>
       </c>
@@ -10163,7 +10185,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A357">
         <v>1</v>
       </c>
@@ -10189,7 +10211,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A358">
         <v>1</v>
       </c>
@@ -10215,7 +10237,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A359">
         <v>2</v>
       </c>
@@ -10241,7 +10263,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A360">
         <v>1</v>
       </c>
@@ -10267,7 +10289,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A361">
         <v>1</v>
       </c>
@@ -10293,7 +10315,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A362">
         <v>1</v>
       </c>
@@ -10319,7 +10341,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A363">
         <v>1</v>
       </c>
@@ -10345,7 +10367,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A364">
         <v>1</v>
       </c>
@@ -10371,7 +10393,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A365">
         <v>1</v>
       </c>
@@ -10397,7 +10419,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A366">
         <v>1</v>
       </c>
@@ -10423,7 +10445,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A367">
         <v>2</v>
       </c>
@@ -10449,7 +10471,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A368">
         <v>1</v>
       </c>
@@ -10475,7 +10497,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A369">
         <v>1</v>
       </c>
@@ -10501,7 +10523,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A370">
         <v>1</v>
       </c>
@@ -10527,7 +10549,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A371">
         <v>1</v>
       </c>
@@ -10553,7 +10575,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A372">
         <v>2</v>
       </c>
@@ -10579,7 +10601,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A373">
         <v>1</v>
       </c>
@@ -10605,7 +10627,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A374">
         <v>1</v>
       </c>
@@ -10631,7 +10653,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A375">
         <v>2</v>
       </c>
@@ -10657,7 +10679,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A376">
         <v>1</v>
       </c>
@@ -10683,7 +10705,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A377">
         <v>1</v>
       </c>
@@ -10709,7 +10731,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A378">
         <v>2</v>
       </c>
@@ -10735,7 +10757,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A379">
         <v>1</v>
       </c>
@@ -10761,7 +10783,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A380">
         <v>1</v>
       </c>
@@ -10787,7 +10809,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A381">
         <v>2</v>
       </c>
@@ -10813,7 +10835,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A382">
         <v>1</v>
       </c>
@@ -10839,7 +10861,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A383">
         <v>1</v>
       </c>
@@ -10865,7 +10887,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A384">
         <v>1</v>
       </c>
@@ -10891,7 +10913,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A385">
         <v>1</v>
       </c>
@@ -10917,7 +10939,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A386">
         <v>1</v>
       </c>
@@ -10943,7 +10965,7 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A387">
         <v>1</v>
       </c>
@@ -10969,7 +10991,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A388">
         <v>1</v>
       </c>
@@ -10995,7 +11017,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A389">
         <v>1</v>
       </c>
@@ -11021,7 +11043,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A390">
         <v>1</v>
       </c>
@@ -11047,7 +11069,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A391">
         <v>1</v>
       </c>
@@ -11073,7 +11095,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A392">
         <v>1</v>
       </c>
@@ -11099,7 +11121,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A393">
         <v>1</v>
       </c>
@@ -11125,7 +11147,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A394">
         <v>1</v>
       </c>
@@ -11151,7 +11173,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A395">
         <v>1</v>
       </c>
@@ -11177,7 +11199,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A396">
         <v>1</v>
       </c>
@@ -11203,7 +11225,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A397">
         <v>1</v>
       </c>
@@ -11229,7 +11251,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A398">
         <v>2</v>
       </c>
@@ -11255,7 +11277,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A399">
         <v>1</v>
       </c>
@@ -11281,7 +11303,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A400">
         <v>1</v>
       </c>
@@ -11307,7 +11329,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A401">
         <v>1</v>
       </c>
@@ -11333,7 +11355,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A402">
         <v>1</v>
       </c>
@@ -11359,7 +11381,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A403">
         <v>1</v>
       </c>
@@ -11385,7 +11407,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A404">
         <v>1</v>
       </c>
@@ -11411,7 +11433,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A405">
         <v>1</v>
       </c>
@@ -11437,7 +11459,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A406">
         <v>1</v>
       </c>
@@ -11463,7 +11485,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A407">
         <v>1</v>
       </c>
@@ -11489,7 +11511,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A408">
         <v>1</v>
       </c>
@@ -11515,7 +11537,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A409">
         <v>2</v>
       </c>
@@ -11541,7 +11563,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A410">
         <v>2</v>
       </c>
@@ -11567,7 +11589,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A411">
         <v>1</v>
       </c>
@@ -11593,7 +11615,7 @@
         <v>5137</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A412">
         <v>1</v>
       </c>
@@ -11619,7 +11641,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A413">
         <v>1</v>
       </c>
@@ -11645,7 +11667,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A414">
         <v>1</v>
       </c>
@@ -11671,7 +11693,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A415">
         <v>1</v>
       </c>
@@ -11697,7 +11719,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A416">
         <v>1</v>
       </c>
@@ -11723,7 +11745,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A417">
         <v>2</v>
       </c>
@@ -11749,7 +11771,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A418">
         <v>2</v>
       </c>
@@ -11775,7 +11797,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="419" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A419">
         <v>1</v>
       </c>
@@ -11801,7 +11823,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="420" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A420">
         <v>2</v>
       </c>
@@ -11827,7 +11849,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A421">
         <v>1</v>
       </c>
@@ -11853,7 +11875,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="422" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A422">
         <v>1</v>
       </c>
@@ -11879,7 +11901,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A423">
         <v>2</v>
       </c>
@@ -11905,7 +11927,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A424">
         <v>1</v>
       </c>
@@ -11931,7 +11953,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A425">
         <v>2</v>
       </c>
@@ -11957,7 +11979,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A426">
         <v>2</v>
       </c>
@@ -11983,7 +12005,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A427">
         <v>1</v>
       </c>
@@ -12009,7 +12031,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A428">
         <v>1</v>
       </c>
@@ -12035,7 +12057,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A429">
         <v>1</v>
       </c>
@@ -12061,7 +12083,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A430">
         <v>1</v>
       </c>
@@ -12087,7 +12109,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A431">
         <v>1</v>
       </c>
@@ -12113,7 +12135,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A432">
         <v>1</v>
       </c>
@@ -12139,7 +12161,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A433">
         <v>1</v>
       </c>
@@ -12165,7 +12187,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A434">
         <v>1</v>
       </c>
@@ -12191,7 +12213,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A435">
         <v>1</v>
       </c>
@@ -12217,7 +12239,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A436">
         <v>1</v>
       </c>
@@ -12243,7 +12265,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A437">
         <v>1</v>
       </c>
@@ -12269,7 +12291,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A438">
         <v>1</v>
       </c>
@@ -12295,7 +12317,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A439">
         <v>2</v>
       </c>
@@ -12321,7 +12343,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A440">
         <v>1</v>
       </c>
@@ -12347,7 +12369,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="1.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="1.05">
       <c r="A441">
         <v>1</v>
       </c>
@@ -12385,18 +12407,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199DE046-ACBB-43F1-8BA8-B635177D79F5}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05"/>
   <cols>
-    <col min="1" max="2" width="8.4296875" style="3"/>
-    <col min="3" max="3" width="8.4296875" style="4"/>
-    <col min="4" max="16384" width="8.4296875" style="3"/>
+    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+    <row r="1" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -12413,7 +12438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+    <row r="2" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -12426,12 +12451,12 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E2" s="3" cm="1">
+        <f t="array" ref="E2">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -12444,12 +12469,12 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E3" s="3" cm="1">
+        <f t="array" ref="E3">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -12462,12 +12487,12 @@
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E4" s="3" cm="1">
+        <f t="array" ref="E4">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -12480,12 +12505,12 @@
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E5" s="3" cm="1">
+        <f t="array" ref="E5">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -12498,12 +12523,12 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E6" s="3" cm="1">
+        <f t="array" ref="E6">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -12516,12 +12541,12 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E7" s="3" cm="1">
+        <f t="array" ref="E7">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -12534,12 +12559,12 @@
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E8" s="3" cm="1">
+        <f t="array" ref="E8">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -12552,12 +12577,12 @@
       <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E9" s="3" cm="1">
+        <f t="array" ref="E9">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -12570,12 +12595,12 @@
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E10" s="3" cm="1">
+        <f t="array" ref="E10">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -12588,12 +12613,12 @@
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E11" s="3" cm="1">
+        <f t="array" ref="E11">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -12606,12 +12631,12 @@
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E12" s="3" cm="1">
+        <f t="array" ref="E12">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -12624,12 +12649,12 @@
       <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E13" s="3" cm="1">
+        <f t="array" ref="E13">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -12642,12 +12667,12 @@
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E14" s="3" cm="1">
+        <f t="array" ref="E14">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -12660,12 +12685,12 @@
       <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E15" s="3" cm="1">
+        <f t="array" ref="E15">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -12678,12 +12703,12 @@
       <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E16" s="3" cm="1">
+        <f t="array" ref="E16">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -12696,12 +12721,12 @@
       <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E17" s="3" cm="1">
+        <f t="array" ref="E17">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -12714,12 +12739,12 @@
       <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E18" s="3" cm="1">
+        <f t="array" ref="E18">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -12732,12 +12757,12 @@
       <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E19" s="3" cm="1">
+        <f t="array" ref="E19">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -12750,12 +12775,12 @@
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E20" s="3" cm="1">
+        <f t="array" ref="E20">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -12768,12 +12793,12 @@
       <c r="D21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E21" s="3" cm="1">
+        <f t="array" ref="E21">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -12786,12 +12811,12 @@
       <c r="D22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E22" s="3" cm="1">
+        <f t="array" ref="E22">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -12804,12 +12829,12 @@
       <c r="D23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E23" s="3" cm="1">
+        <f t="array" ref="E23">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -12822,12 +12847,12 @@
       <c r="D24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E24" s="3" cm="1">
+        <f t="array" ref="E24">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -12840,12 +12865,12 @@
       <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E25" s="3" cm="1">
+        <f t="array" ref="E25">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -12858,12 +12883,12 @@
       <c r="D26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E26" s="3" cm="1">
+        <f t="array" ref="E26">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -12876,12 +12901,12 @@
       <c r="D27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E27" s="3" cm="1">
+        <f t="array" ref="E27">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -12894,12 +12919,12 @@
       <c r="D28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E28" s="3" cm="1">
+        <f t="array" ref="E28">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -12912,12 +12937,12 @@
       <c r="D29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E29" s="3" cm="1">
+        <f t="array" ref="E29">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -12930,12 +12955,12 @@
       <c r="D30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E30" s="3" cm="1">
+        <f t="array" ref="E30">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -12948,12 +12973,12 @@
       <c r="D31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E31" s="3" cm="1">
+        <f t="array" ref="E31">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -12966,12 +12991,12 @@
       <c r="D32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E32" s="3" cm="1">
+        <f t="array" ref="E32">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -12984,12 +13009,12 @@
       <c r="D33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E33" s="3" cm="1">
+        <f t="array" ref="E33">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -13002,12 +13027,12 @@
       <c r="D34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E34" s="3" cm="1">
+        <f t="array" ref="E34">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -13020,12 +13045,12 @@
       <c r="D35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E35" s="3" cm="1">
+        <f t="array" ref="E35">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -13038,12 +13063,12 @@
       <c r="D36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E36" s="3" cm="1">
+        <f t="array" ref="E36">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -13056,12 +13081,12 @@
       <c r="D37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E37" s="3" cm="1">
+        <f t="array" ref="E37">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -13074,12 +13099,12 @@
       <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E38" s="3" cm="1">
+        <f t="array" ref="E38">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -13092,12 +13117,12 @@
       <c r="D39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E39" s="3" cm="1">
+        <f t="array" ref="E39">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -13110,12 +13135,12 @@
       <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E40" s="3" cm="1">
+        <f t="array" ref="E40">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -13128,12 +13153,12 @@
       <c r="D41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E41" s="3" cm="1">
+        <f t="array" ref="E41">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -13146,12 +13171,12 @@
       <c r="D42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E42" s="3" cm="1">
+        <f t="array" ref="E42">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -13164,12 +13189,12 @@
       <c r="D43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E43" s="3" cm="1">
+        <f t="array" ref="E43">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -13182,12 +13207,12 @@
       <c r="D44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E44" s="3" cm="1">
+        <f t="array" ref="E44">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -13200,12 +13225,12 @@
       <c r="D45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E45" s="3" cm="1">
+        <f t="array" ref="E45">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -13218,12 +13243,12 @@
       <c r="D46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E46" s="3" cm="1">
+        <f t="array" ref="E46">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -13236,12 +13261,12 @@
       <c r="D47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E47" s="3" cm="1">
+        <f t="array" ref="E47">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -13254,12 +13279,12 @@
       <c r="D48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E48" s="3" cm="1">
+        <f t="array" ref="E48">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -13272,12 +13297,12 @@
       <c r="D49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E49" s="3" cm="1">
+        <f t="array" ref="E49">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -13290,12 +13315,12 @@
       <c r="D50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E50" s="3" cm="1">
+        <f t="array" ref="E50">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -13308,12 +13333,12 @@
       <c r="D51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E51" s="3" cm="1">
+        <f t="array" ref="E51">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -13326,12 +13351,12 @@
       <c r="D52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E52" s="3" cm="1">
+        <f t="array" ref="E52">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -13344,12 +13369,12 @@
       <c r="D53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E53" s="3" cm="1">
+        <f t="array" ref="E53">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -13362,12 +13387,12 @@
       <c r="D54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E54" s="3" cm="1">
+        <f t="array" ref="E54">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -13380,12 +13405,12 @@
       <c r="D55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E55" s="3" cm="1">
+        <f t="array" ref="E55">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -13398,12 +13423,12 @@
       <c r="D56" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E56" s="3" cm="1">
+        <f t="array" ref="E56">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -13416,12 +13441,12 @@
       <c r="D57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E57" s="3" cm="1">
+        <f t="array" ref="E57">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -13434,12 +13459,12 @@
       <c r="D58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E58" s="3" cm="1">
+        <f t="array" ref="E58">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -13452,12 +13477,12 @@
       <c r="D59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E59" s="3" cm="1">
+        <f t="array" ref="E59">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -13470,12 +13495,12 @@
       <c r="D60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E60" s="3" cm="1">
+        <f t="array" ref="E60">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -13488,12 +13513,12 @@
       <c r="D61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E61" s="3" cm="1">
+        <f t="array" ref="E61">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -13506,12 +13531,12 @@
       <c r="D62" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E62" s="3" cm="1">
+        <f t="array" ref="E62">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -13524,12 +13549,12 @@
       <c r="D63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E63" s="3" cm="1">
+        <f t="array" ref="E63">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -13542,12 +13567,12 @@
       <c r="D64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E64" s="3" cm="1">
+        <f t="array" ref="E64">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -13560,12 +13585,12 @@
       <c r="D65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E65" s="3" cm="1">
+        <f t="array" ref="E65">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -13578,12 +13603,12 @@
       <c r="D66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E66" s="3" cm="1">
+        <f t="array" ref="E66">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -13596,12 +13621,12 @@
       <c r="D67" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E67" s="3" cm="1">
+        <f t="array" ref="E67">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -13614,12 +13639,12 @@
       <c r="D68" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E68" s="3" cm="1">
+        <f t="array" ref="E68">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -13632,12 +13657,12 @@
       <c r="D69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E69" s="3" cm="1">
+        <f t="array" ref="E69">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -13650,12 +13675,12 @@
       <c r="D70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E70" s="3" cm="1">
+        <f t="array" ref="E70">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -13668,12 +13693,12 @@
       <c r="D71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E71" s="3" cm="1">
+        <f t="array" ref="E71">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -13686,12 +13711,12 @@
       <c r="D72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E72" s="3" cm="1">
+        <f t="array" ref="E72">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -13704,12 +13729,12 @@
       <c r="D73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E73" s="3" cm="1">
+        <f t="array" ref="E73">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -13722,12 +13747,12 @@
       <c r="D74" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
+      <c r="E74" s="3" cm="1">
+        <f t="array" ref="E74">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+    <row r="75" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -13740,12 +13765,12 @@
       <c r="D75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E75" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E75" s="3" cm="1">
+        <f t="array" ref="E75">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -13758,12 +13783,12 @@
       <c r="D76" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E76" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E76" s="3" cm="1">
+        <f t="array" ref="E76">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -13776,12 +13801,12 @@
       <c r="D77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E77" s="3" cm="1">
+        <f t="array" ref="E77">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -13794,12 +13819,12 @@
       <c r="D78" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E78" s="3" cm="1">
+        <f t="array" ref="E78">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -13812,12 +13837,12 @@
       <c r="D79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E79" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E79" s="3" cm="1">
+        <f t="array" ref="E79">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -13830,12 +13855,12 @@
       <c r="D80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E80" s="3" cm="1">
+        <f t="array" ref="E80">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -13848,12 +13873,12 @@
       <c r="D81" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E81" s="3" cm="1">
+        <f t="array" ref="E81">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -13866,12 +13891,12 @@
       <c r="D82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E82" s="3" cm="1">
+        <f t="array" ref="E82">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -13884,12 +13909,12 @@
       <c r="D83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E83" s="3" cm="1">
+        <f t="array" ref="E83">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -13902,12 +13927,12 @@
       <c r="D84" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E84" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
+      <c r="E84" s="3" cm="1">
+        <f t="array" ref="E84">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+    <row r="85" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -13920,12 +13945,12 @@
       <c r="D85" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E85" s="3" cm="1">
+        <f t="array" ref="E85">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -13938,12 +13963,12 @@
       <c r="D86" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E86" s="3" cm="1">
+        <f t="array" ref="E86">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -13956,12 +13981,12 @@
       <c r="D87" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E87" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E87" s="3" cm="1">
+        <f t="array" ref="E87">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -13974,12 +13999,12 @@
       <c r="D88" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E88" s="3" cm="1">
+        <f t="array" ref="E88">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -13992,12 +14017,12 @@
       <c r="D89" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E89" s="3" cm="1">
+        <f t="array" ref="E89">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -14010,12 +14035,12 @@
       <c r="D90" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E90" s="3" cm="1">
+        <f t="array" ref="E90">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -14028,12 +14053,12 @@
       <c r="D91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E91" s="3" cm="1">
+        <f t="array" ref="E91">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -14046,12 +14071,12 @@
       <c r="D92" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E92" s="3" cm="1">
+        <f t="array" ref="E92">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -14064,12 +14089,12 @@
       <c r="D93" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E93" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E93" s="3" cm="1">
+        <f t="array" ref="E93">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -14082,12 +14107,12 @@
       <c r="D94" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E94" s="3" cm="1">
+        <f t="array" ref="E94">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -14100,12 +14125,12 @@
       <c r="D95" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E95" s="3" cm="1">
+        <f t="array" ref="E95">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -14118,12 +14143,12 @@
       <c r="D96" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E96" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E96" s="3" cm="1">
+        <f t="array" ref="E96">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -14136,12 +14161,12 @@
       <c r="D97" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E97" s="3" cm="1">
+        <f t="array" ref="E97">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -14154,12 +14179,12 @@
       <c r="D98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E98" s="3" cm="1">
+        <f t="array" ref="E98">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -14172,12 +14197,12 @@
       <c r="D99" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E99" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E99" s="3" cm="1">
+        <f t="array" ref="E99">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -14190,12 +14215,12 @@
       <c r="D100" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.3">
+      <c r="E100" s="3" cm="1">
+        <f t="array" ref="E100">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -14208,9 +14233,9 @@
       <c r="D101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E101" s="3">
-        <f>COUNTIFS(sales[Region],sales[[#This Row],[Region]],sales[Sales],"&gt;"&amp;sales[[#This Row],[Sales]]) + 1</f>
-        <v>28</v>
+      <c r="E101" s="3" cm="1">
+        <f t="array" ref="E101">SUMPRODUCT((sales[Region] = sales[[#This Row],[Region]]) * (sales[Sales] &lt; sales[[#This Row],[Sales]])) + 1</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -14229,18 +14254,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <cols>
-    <col min="1" max="1" width="11.40625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.11328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.40625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.56640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3828125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.54296875" style="3"/>
+    <col min="3" max="3" width="10.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5390625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.37109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.5390625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -14260,7 +14285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -14280,7 +14305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -14300,7 +14325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -14320,7 +14345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -14340,7 +14365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -14360,7 +14385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -14380,7 +14405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -14400,7 +14425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -14420,7 +14445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -14440,7 +14465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -14460,7 +14485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -14480,7 +14505,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -14500,7 +14525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -14520,7 +14545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -14540,7 +14565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="1.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="1.05">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
